--- a/payment_info.xlsx
+++ b/payment_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>User ID</t>
   </si>
@@ -28,7 +28,7 @@
     <t>Phone</t>
   </si>
   <si>
-    <t>1027048862</t>
+    <t>1528986674</t>
   </si>
   <si>
     <t>deepak</t>
@@ -40,6 +40,9 @@
     <t>dfghj</t>
   </si>
   <si>
+    <t>Sami amine</t>
+  </si>
+  <si>
     <t>Darakhsha</t>
   </si>
   <si>
@@ -52,6 +55,9 @@
     <t>hvjhv</t>
   </si>
   <si>
+    <t>@hfjfk</t>
+  </si>
+  <si>
     <t>gcgh</t>
   </si>
   <si>
@@ -59,6 +65,9 @@
   </si>
   <si>
     <t>gcfgj</t>
+  </si>
+  <si>
+    <t>0588559</t>
   </si>
 </sst>
 </file>
@@ -416,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,7 +453,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2">
         <v>7379673530</v>
@@ -458,7 +467,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>1234567890</v>
@@ -472,10 +481,10 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -486,15 +495,15 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>4</v>
+      <c r="A6">
+        <v>1027048862</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -503,7 +512,21 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
